--- a/biology/Médecine/Marcantonio_della_Torre/Marcantonio_della_Torre.xlsx
+++ b/biology/Médecine/Marcantonio_della_Torre/Marcantonio_della_Torre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marcantonio della Torre, 1481-1511, est un docteur en anatomie italien de l'université de Pavie[1] et de Padoue.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marcantonio della Torre, 1481-1511, est un docteur en anatomie italien de l'université de Pavie et de Padoue.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En  1510 et 1511, Marcantonio della Torre et Léonard de Vinci ont compilé lors de leurs recherches anatomiques et médicales, le « Traité de la peinture », qui malgré son nom est un ensemble de travaux théoriques sur l'anatomie avec plus de deux cents dessins de Léonard.
 Marcantonio décède de la peste à Pavie en 1511.
@@ -543,9 +557,11 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Andrea Briosco exécuta huit bas-reliefs (1516 - 1521) pour le monument funéraire de Girolamo et Marc Antonio della Torre à San Fermo Maggiore de Vérone. Ces huit bas-reliefs sont conservés au musée du Louvre[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Andrea Briosco exécuta huit bas-reliefs (1516 - 1521) pour le monument funéraire de Girolamo et Marc Antonio della Torre à San Fermo Maggiore de Vérone. Ces huit bas-reliefs sont conservés au musée du Louvre :
 Della Torre professant la médecine, 1516 - 1521, Padoue, bronze, 37 x 49 cm
 La Renommée sur la terre
 Le Paradis
